--- a/Stocks/UJJIVAN.xlsx
+++ b/Stocks/UJJIVAN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>363.11666666666662</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>318.36657894993908</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>320.27827237159846</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>21.338348706820469</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>5.0499999999999545</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>12.149999999999977</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.41563786008230158</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>326.23866347718729</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-0.26144999170122674</v>
       </c>
       <c r="Y67">
         <v>2.7374508908674549</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>316</v>
+      </c>
+      <c r="D83">
+        <v>326.5</v>
+      </c>
+      <c r="E83">
+        <v>311.39999999999998</v>
+      </c>
+      <c r="F83">
+        <v>325.14999999999998</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>321.01666666666665</v>
+      </c>
+      <c r="H83">
+        <v>316.74866714343693</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>320.64221199959258</v>
+      </c>
+      <c r="K83">
+        <v>309.17629728094539</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>66.455016065733588</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>13.75</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>15.100000000000023</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.91059602649006488</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V83">
+        <v>316.96193325192661</v>
+      </c>
+      <c r="W83">
+        <v>319.33923317136282</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-2.3772999194362114</v>
+      </c>
+      <c r="Y83">
+        <v>-2.6230647851095226</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>325</v>
+      </c>
+      <c r="D84">
+        <v>330.4</v>
+      </c>
+      <c r="E84">
+        <v>322.39999999999998</v>
+      </c>
+      <c r="F84">
+        <v>324.2</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>325.66666666666669</v>
+      </c>
+      <c r="H84">
+        <v>321.20766690505184</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>322.81060933301643</v>
+      </c>
+      <c r="K84">
+        <v>312.11489788517974</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N84">
+        <v>64.120073106248753</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.22500000000000142</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>318.07548198239942</v>
+      </c>
+      <c r="W84">
+        <v>319.6992899734841</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-1.623807991084675</v>
+      </c>
+      <c r="Y84">
+        <v>-2.4232134263045531</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>346.25</v>
+      </c>
+      <c r="D85">
+        <v>361.9</v>
+      </c>
+      <c r="E85">
+        <v>337.2</v>
+      </c>
+      <c r="F85">
+        <v>361.55</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>353.54999999999995</v>
+      </c>
+      <c r="H85">
+        <v>337.3788334525259</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>331.49714059234611</v>
+      </c>
+      <c r="K85">
+        <v>317.68936502180645</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>86.841429115582315</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>24.350000000000023</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>24.699999999999989</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.98582995951417141</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V85">
+        <v>324.76386936972261</v>
+      </c>
+      <c r="W85">
+        <v>322.79934256804086</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>1.9645268016817568</v>
+      </c>
+      <c r="Y85">
+        <v>-1.5456653807072911</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD85">
+        <f t="shared" si="35"/>
+        <v>340</v>
+      </c>
+      <c r="AE85">
+        <f t="shared" si="36"/>
+        <v>346.65000000000003</v>
+      </c>
+      <c r="AF85">
+        <f t="shared" si="37"/>
+        <v>349.55</v>
+      </c>
+      <c r="AG85">
+        <f t="shared" si="38"/>
+        <v>352.45000000000005</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>364.05</v>
+      </c>
+      <c r="D86">
+        <v>374</v>
+      </c>
+      <c r="E86">
+        <v>360.55</v>
+      </c>
+      <c r="F86">
+        <v>366.9</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>367.14999999999992</v>
+      </c>
+      <c r="H86">
+        <v>352.26441672626288</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>340.94222046071366</v>
+      </c>
+      <c r="K86">
+        <v>327.21395057251613</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>88.181473599968456</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>6.3499999999999659</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>13.449999999999989</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.47211895910780455</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>331.2463510051499</v>
+      </c>
+      <c r="W86">
+        <v>326.06605793337116</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>5.180293071778749</v>
+      </c>
+      <c r="Y86">
+        <v>-0.20047369021008299</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>369</v>
+      </c>
+      <c r="D87">
+        <v>369.95</v>
+      </c>
+      <c r="E87">
+        <v>360.55</v>
+      </c>
+      <c r="F87">
+        <v>361</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>363.83333333333331</v>
+      </c>
+      <c r="H87">
+        <v>358.04887502979807</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>347.38839369166618</v>
+      </c>
+      <c r="K87">
+        <v>334.62196155640146</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>77.326098557596382</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>0.44999999999998863</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>9.3999999999999773</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>4.7872340425530818E-2</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>335.82383546589608</v>
+      </c>
+      <c r="W87">
+        <v>328.65375734571404</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>7.1700781201820405</v>
+      </c>
+      <c r="Y87">
+        <v>1.2736366718683418</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>360.1</v>
+      </c>
+      <c r="D88">
+        <v>360.3</v>
+      </c>
+      <c r="E88">
+        <v>343.1</v>
+      </c>
+      <c r="F88">
+        <v>350.25</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>351.2166666666667</v>
+      </c>
+      <c r="H88">
+        <v>354.63277084823238</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>350.25763953796258</v>
+      </c>
+      <c r="K88">
+        <v>336.50597009942334</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>60.393483768036774</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>7.1499999999999773</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>17.199999999999989</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.41569767441860361</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>338.04324539421975</v>
+      </c>
+      <c r="W88">
+        <v>330.25347902380929</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>7.7897663704104616</v>
+      </c>
+      <c r="Y88">
+        <v>2.5768626115767659</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>352.9</v>
+      </c>
+      <c r="D89">
+        <v>368.7</v>
+      </c>
+      <c r="E89">
+        <v>351.55</v>
+      </c>
+      <c r="F89">
+        <v>363.65</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>361.3</v>
+      </c>
+      <c r="H89">
+        <v>357.9663854241162</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>354.35594186285977</v>
+      </c>
+      <c r="K89">
+        <v>339.84908785510703</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>70.46926160784092</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>12.099999999999966</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>17.149999999999977</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.70553935860058203</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>341.98274610280134</v>
+      </c>
+      <c r="W89">
+        <v>332.72729539241601</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>9.2554507103853325</v>
+      </c>
+      <c r="Y89">
+        <v>3.9125802313384792</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>358</v>
+      </c>
+      <c r="D90">
+        <v>377.5</v>
+      </c>
+      <c r="E90">
+        <v>357.55</v>
+      </c>
+      <c r="F90">
+        <v>374.65</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>369.89999999999992</v>
+      </c>
+      <c r="H90">
+        <v>363.93319271205803</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>359.4990658933354</v>
+      </c>
+      <c r="K90">
+        <v>343.78262388730548</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>76.582265999772602</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>17.099999999999966</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>19.949999999999989</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.85714285714285587</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V90">
+        <v>347.00847747160111</v>
+      </c>
+      <c r="W90">
+        <v>335.83268091890369</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>11.17579655269742</v>
+      </c>
+      <c r="Y90">
+        <v>5.3652234956102678</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD90">
+        <f t="shared" si="35"/>
+        <v>359.8</v>
+      </c>
+      <c r="AE90">
+        <f t="shared" si="36"/>
+        <v>365.15000000000003</v>
+      </c>
+      <c r="AF90">
+        <f t="shared" si="37"/>
+        <v>367.5</v>
+      </c>
+      <c r="AG90">
+        <f t="shared" si="38"/>
+        <v>369.90000000000003</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>377.95</v>
+      </c>
+      <c r="D91">
+        <v>381.3</v>
+      </c>
+      <c r="E91">
+        <v>370.45</v>
+      </c>
+      <c r="F91">
+        <v>372.5</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>374.75</v>
+      </c>
+      <c r="H91">
+        <v>369.34159635602902</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>364.34371791703865</v>
+      </c>
+      <c r="K91">
+        <v>349.70870746790428</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>72.89557001768091</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>2.0500000000000114</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>10.850000000000023</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.18894009216589927</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>350.93025016827784</v>
+      </c>
+      <c r="W91">
+        <v>338.54877862861451</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>12.381471539663323</v>
+      </c>
+      <c r="Y91">
+        <v>6.7684731044208792</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>375.9</v>
+      </c>
+      <c r="D92">
+        <v>378.4</v>
+      </c>
+      <c r="E92">
+        <v>365.45</v>
+      </c>
+      <c r="F92">
+        <v>367.55</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>370.46666666666664</v>
+      </c>
+      <c r="H92">
+        <v>369.90413151134783</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>367.46733615769671</v>
+      </c>
+      <c r="K92">
+        <v>353.20677247503664</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>64.025288395290374</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>2.1000000000000227</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>12.949999999999989</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.16216216216216406</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>353.48713475777356</v>
+      </c>
+      <c r="W92">
+        <v>340.69701724871715</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>12.790117509056415</v>
+      </c>
+      <c r="Y92">
+        <v>7.9728019853479868</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>373.1</v>
+      </c>
+      <c r="D93">
+        <v>378.75</v>
+      </c>
+      <c r="E93">
+        <v>366.5</v>
+      </c>
+      <c r="F93">
+        <v>372.55</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>372.59999999999997</v>
+      </c>
+      <c r="H93">
+        <v>371.25206575567393</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>369.97459478931967</v>
+      </c>
+      <c r="K93">
+        <v>356.16082303613962</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>68.81641007958865</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>6.0500000000000114</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>12.25</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.49387755102040909</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>356.41988325657763</v>
+      </c>
+      <c r="W93">
+        <v>343.05649745251588</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>13.36338580406175</v>
+      </c>
+      <c r="Y93">
+        <v>9.050918749090739</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>374.9</v>
+      </c>
+      <c r="D94">
+        <v>376.45</v>
+      </c>
+      <c r="E94">
+        <v>368.1</v>
+      </c>
+      <c r="F94">
+        <v>369.6</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>371.38333333333338</v>
+      </c>
+      <c r="H94">
+        <v>371.31769954450363</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>371.41357372502642</v>
+      </c>
+      <c r="K94">
+        <v>358.81397347255302</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>62.661745452899979</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>8.3499999999999659</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.17964071856287497</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>358.44759352479645</v>
+      </c>
+      <c r="W94">
+        <v>345.02268282640358</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>13.424910698392864</v>
+      </c>
+      <c r="Y94">
+        <v>9.925717138951164</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>369.15</v>
+      </c>
+      <c r="D95">
+        <v>371.85</v>
+      </c>
+      <c r="E95">
+        <v>358</v>
+      </c>
+      <c r="F95">
+        <v>359.65</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>363.16666666666669</v>
+      </c>
+      <c r="H95">
+        <v>367.24218310558513</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>371.51055734168722</v>
+      </c>
+      <c r="K95">
+        <v>358.63309047865232</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>45.503632438407891</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>1.6499999999999773</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>13.850000000000023</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.11913357400721838</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>358.63257913636625</v>
+      </c>
+      <c r="W95">
+        <v>346.10618780222552</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>12.526391334140726</v>
+      </c>
+      <c r="Y95">
+        <v>10.445851977989076</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>361.6</v>
+      </c>
+      <c r="D96">
+        <v>365.8</v>
+      </c>
+      <c r="E96">
+        <v>353.8</v>
+      </c>
+      <c r="F96">
+        <v>355.7</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>358.43333333333334</v>
+      </c>
+      <c r="H96">
+        <v>362.83775821945926</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>370.24154459909005</v>
+      </c>
+      <c r="K96">
+        <v>357.55907037228513</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N96">
+        <v>40.060295558232781</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>1.8999999999999773</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>12</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.15833333333333144</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>358.18141311538682</v>
+      </c>
+      <c r="W96">
+        <v>346.81684055761622</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>11.3645725577706</v>
+      </c>
+      <c r="Y96">
+        <v>10.629596093945381</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>353.7</v>
+      </c>
+      <c r="D97">
+        <v>357.75</v>
+      </c>
+      <c r="E97">
+        <v>348.5</v>
+      </c>
+      <c r="F97">
+        <v>351.2</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>352.48333333333335</v>
+      </c>
+      <c r="H97">
+        <v>357.6605457763963</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>367.46564579929225</v>
+      </c>
+      <c r="K97">
+        <v>355.54594362288844</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N97">
+        <v>34.229301323040971</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>2.6999999999999886</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>9.25</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.29189189189189069</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>357.10734955917349</v>
+      </c>
+      <c r="W97">
+        <v>347.14151903482986</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>9.9658305243436303</v>
+      </c>
+      <c r="Y97">
+        <v>10.496842980025031</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>354.4</v>
+      </c>
+      <c r="D98">
+        <v>358.8</v>
+      </c>
+      <c r="E98">
+        <v>351</v>
+      </c>
+      <c r="F98">
+        <v>351.1</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>353.63333333333338</v>
+      </c>
+      <c r="H98">
+        <v>355.64693955486484</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>365.53994673278288</v>
+      </c>
+      <c r="K98">
+        <v>354.53573392891326</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N98">
+        <v>34.091462487809707</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>0.10000000000002274</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>7.8000000000000114</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>1.2820512820515717E-2</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V98">
+        <v>356.18314193468524</v>
+      </c>
+      <c r="W98">
+        <v>347.43473984706469</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>8.7484020876205477</v>
+      </c>
+      <c r="Y98">
+        <v>10.147154801544135</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>352.8</v>
+      </c>
+      <c r="D99">
+        <v>364.5</v>
+      </c>
+      <c r="E99">
+        <v>349</v>
+      </c>
+      <c r="F99">
+        <v>357.35</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>356.95</v>
+      </c>
+      <c r="H99">
+        <v>356.29846977743239</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>365.30884745883111</v>
+      </c>
+      <c r="K99">
+        <v>353.30557083359918</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>49.864323317163702</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>8.3500000000000227</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>15.5</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.53870967741935627</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>356.36265856011829</v>
+      </c>
+      <c r="W99">
+        <v>348.16920356209692</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>8.193454998021366</v>
+      </c>
+      <c r="Y99">
+        <v>9.7564148408395805</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>359.8</v>
+      </c>
+      <c r="D100">
+        <v>365</v>
+      </c>
+      <c r="E100">
+        <v>354.4</v>
+      </c>
+      <c r="F100">
+        <v>358.65</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>359.34999999999997</v>
+      </c>
+      <c r="H100">
+        <v>357.82423488871621</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>365.24021469020198</v>
+      </c>
+      <c r="K100">
+        <v>353.5487773150216</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>52.801119724385323</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>4.25</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>10.600000000000023</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.40094339622641423</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>356.71455724317701</v>
+      </c>
+      <c r="W100">
+        <v>348.94555885379344</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>7.7689983893835688</v>
+      </c>
+      <c r="Y100">
+        <v>9.3589315505483786</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>359.75</v>
+      </c>
+      <c r="D101">
+        <v>362.85</v>
+      </c>
+      <c r="E101">
+        <v>350.2</v>
+      </c>
+      <c r="F101">
+        <v>352</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>355.01666666666665</v>
+      </c>
+      <c r="H101">
+        <v>356.42045077769143</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>364.7090558701571</v>
+      </c>
+      <c r="K101">
+        <v>352.80460457835011</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>38.413254311675679</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>12.650000000000034</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.14229249011857759</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V101">
+        <v>355.98924074422672</v>
+      </c>
+      <c r="W101">
+        <v>349.17181375351242</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>6.8174269907142957</v>
+      </c>
+      <c r="Y101">
+        <v>8.8506306385815616</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>351.55</v>
+      </c>
+      <c r="D102">
+        <v>351.55</v>
+      </c>
+      <c r="E102">
+        <v>331.8</v>
+      </c>
+      <c r="F102">
+        <v>338.95</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>340.76666666666665</v>
+      </c>
+      <c r="H102">
+        <v>348.59355872217907</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>361.78482123234443</v>
+      </c>
+      <c r="K102">
+        <v>348.13691467205007</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>23.023674753551688</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>7.1499999999999773</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>19.75</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.36202531645569508</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>353.36781909126876</v>
+      </c>
+      <c r="W102">
+        <v>348.41464236436337</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>4.953176726905383</v>
+      </c>
+      <c r="Y102">
+        <v>8.0711398562463259</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>338</v>
+      </c>
+      <c r="D103">
+        <v>338</v>
+      </c>
+      <c r="E103">
+        <v>319.2</v>
+      </c>
+      <c r="F103">
+        <v>325</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>327.40000000000003</v>
+      </c>
+      <c r="H103">
+        <v>337.99677936108958</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>356.49930540293457</v>
+      </c>
+      <c r="K103">
+        <v>341.70648918937229</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>14.995939491241812</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>5.8000000000000114</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>18.800000000000011</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.30851063829787279</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>349.00353923107355</v>
+      </c>
+      <c r="W103">
+        <v>346.68022441144757</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>2.3233148196259776</v>
+      </c>
+      <c r="Y103">
+        <v>6.9215748489222566</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>326</v>
+      </c>
+      <c r="D104">
+        <v>333</v>
+      </c>
+      <c r="E104">
+        <v>323.75</v>
+      </c>
+      <c r="F104">
+        <v>330.35</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>329.03333333333336</v>
+      </c>
+      <c r="H104">
+        <v>333.5150563472115</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>351.27723753561577</v>
+      </c>
+      <c r="K104">
+        <v>337.7161582584007</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>27.169587914197919</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>6.6000000000000227</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>9.25</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.713513513513516</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>346.13376396475456</v>
+      </c>
+      <c r="W104">
+        <v>345.47057815874774</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>0.66318580600682253</v>
+      </c>
+      <c r="Y104">
+        <v>5.66989704033917</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>333.2</v>
+      </c>
+      <c r="D105">
+        <v>334.55</v>
+      </c>
+      <c r="E105">
+        <v>316.89999999999998</v>
+      </c>
+      <c r="F105">
+        <v>318</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>323.15000000000003</v>
+      </c>
+      <c r="H105">
+        <v>328.33252817360574</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>347.56007363881224</v>
+      </c>
+      <c r="K105">
+        <v>333.09034531208943</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>19.225009771236252</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>1.1000000000000227</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>17.650000000000034</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>6.2322946175638563E-2</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>341.80549258556158</v>
+      </c>
+      <c r="W105">
+        <v>343.43572051735902</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-1.6302279317974353</v>
+      </c>
+      <c r="Y105">
+        <v>4.2098720459118493</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>332.55</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>327.8</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>325.75</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>323.65000000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>319.89999999999998</v>
+      </c>
+      <c r="D106">
+        <v>322.85000000000002</v>
+      </c>
+      <c r="E106">
+        <v>313.3</v>
+      </c>
+      <c r="F106">
+        <v>315.2</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>317.11666666666673</v>
+      </c>
+      <c r="H106">
+        <v>322.72459742013621</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>342.06894616352065</v>
+      </c>
+      <c r="K106">
+        <v>328.69249079829177</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>17.753782484523782</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>1.8999999999999773</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>9.5500000000000114</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.19895287958114921</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V106">
+        <v>337.71233988009055</v>
+      </c>
+      <c r="W106">
+        <v>341.3441856642213</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-3.6318457841307463</v>
+      </c>
+      <c r="Y106">
+        <v>2.6415284799033301</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD106">
+        <f t="shared" si="35"/>
+        <v>321.75</v>
+      </c>
+      <c r="AE106">
+        <f t="shared" si="36"/>
+        <v>319.20000000000005</v>
+      </c>
+      <c r="AF106">
+        <f t="shared" si="37"/>
+        <v>318.10000000000002</v>
+      </c>
+      <c r="AG106">
+        <f t="shared" si="38"/>
+        <v>316.95000000000005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>318.89999999999998</v>
+      </c>
+      <c r="D107">
+        <v>322.5</v>
+      </c>
+      <c r="E107">
+        <v>316.64999999999998</v>
+      </c>
+      <c r="F107">
+        <v>319.8</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>319.65000000000003</v>
+      </c>
+      <c r="H107">
+        <v>321.18729871006815</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>337.72029146051608</v>
+      </c>
+      <c r="K107">
+        <v>326.01638173200473</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>28.923652456428833</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>3.1500000000000341</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>5.8500000000000227</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.53846153846154221</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>334.95659528315355</v>
+      </c>
+      <c r="W107">
+        <v>339.74832005946416</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-4.7917247763106161</v>
+      </c>
+      <c r="Y107">
+        <v>1.1548778286605406</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
